--- a/medicine/Pharmacie/Strychnos_ignatii/Strychnos_ignatii.xlsx
+++ b/medicine/Pharmacie/Strychnos_ignatii/Strychnos_ignatii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Strychnos ignatii est une espèce de petits arbustes de la famille des Loganiacées, originaire des Philippines. Elle était anciennement appelée Ignatia amara[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strychnos ignatii est une espèce de petits arbustes de la famille des Loganiacées, originaire des Philippines. Elle était anciennement appelée Ignatia amara.
 Sa graine est appelée « fève de Saint-Ignace ».
-La graine de cette plante contient deux alcaloïdes la strychnine et la brucine[2].
+La graine de cette plante contient deux alcaloïdes la strychnine et la brucine.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante, et surtout son fruit, furent appelés ‘Ignatii’ par Georges Kamel, frère jésuite morave, missionnaire et botaniste (apothicaire) aux Philippines, en hommage à saint Ignace de Loyola, fondateur de l’Ordre religieux auquel il appartenait. Aux Philippines la plante est connue sous les noms de ‘aguwason’, ‘dankkagi ‘(en langue bisaya) or ‘igasud’ (en langue cebuano).
 </t>
